--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhoades26\OneDrive - University of Portland\Documents\benemo\GUINeMo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D86F0F-11CF-4EE9-9EE9-7E61B170DB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9391F9B3-FD42-4797-A4BA-7380FE8B1822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Pulse Shape</t>
   </si>
@@ -100,13 +100,25 @@
   </si>
   <si>
     <t>Example</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>Mean ROI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +132,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -138,8 +165,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -155,21 +182,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,30 +510,34 @@
     <col min="18" max="18" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,14 +583,26 @@
       <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="S2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -615,7 +661,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:P1"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhoades26\OneDrive - University of Portland\Documents\benemo\GUINeMo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upedu-my.sharepoint.com/personal/rhoades26_up_edu/Documents/Documents/benemo/GUINeMo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9391F9B3-FD42-4797-A4BA-7380FE8B1822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{9391F9B3-FD42-4797-A4BA-7380FE8B1822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6ADF41E-D837-413C-83DE-240FFBD013CE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="2895" windowWidth="24645" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Realistic" sheetId="1" r:id="rId1"/>
+    <sheet name="Uniform" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Pulse Shape</t>
   </si>
@@ -112,6 +113,9 @@
   </si>
   <si>
     <t>Mean ROI</t>
+  </si>
+  <si>
+    <t>E-Field Orientation (°)</t>
   </si>
 </sst>
 </file>
@@ -187,19 +191,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,9 +488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomLeft" activeCell="V3" sqref="A1:V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,31 +515,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="5" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -583,22 +587,22 @@
       <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -666,4 +670,159 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4B39B2-009F-48E3-9FAC-8166D19D7725}">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>0.25</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>255</v>
+      </c>
+      <c r="H3">
+        <v>0.05</v>
+      </c>
+      <c r="I3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1000</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2.111602</v>
+      </c>
+      <c r="N3">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="B1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>